--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1725.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1725.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4538061444327919</v>
+        <v>0.8947585821151733</v>
       </c>
       <c r="B1">
-        <v>0.9565231792644117</v>
+        <v>1.762492775917053</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.759534605747458</v>
+        <v>1.879625201225281</v>
       </c>
       <c r="E1">
-        <v>1.824242820118904</v>
+        <v>1.112817168235779</v>
       </c>
     </row>
   </sheetData>
